--- a/WBS/IC-WBS-Tree-Diagram-Template-8721.xlsx
+++ b/WBS/IC-WBS-Tree-Diagram-Template-8721.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryam.2121536\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nation Builders\Nation-Builders\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D96C2-A4FD-4BC5-A967-5077C73BFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4B26C-9792-4626-BE93-D8AFB2E231ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Tree Diagram" sheetId="1" r:id="rId1"/>
@@ -1262,13 +1262,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:colOff>1063835</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:colOff>1063835</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
@@ -1285,8 +1285,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7537450" y="2032000"/>
-          <a:ext cx="0" cy="368300"/>
+          <a:off x="7493210" y="2039938"/>
+          <a:ext cx="0" cy="376237"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3864,7 +3864,7 @@
               <a:ea typeface="Century Gothic" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>prople responsible: team members</a:t>
+            <a:t>people responsible: team members</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -9829,9 +9829,9 @@
   </sheetPr>
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
